--- a/data/raw/ghana_community_tasting.xlsx
+++ b/data/raw/ghana_community_tasting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Dropbox (Bioversity CR)/Rcode/sweetpotato-cip-tricot/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D270A-1481-8A43-AE4F-29D8ABE7DB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A599A97-EB7F-A148-98CD-58A96D596C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27560" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34300" yWindow="1200" windowWidth="29960" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT-Northern Ghana" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="528">
   <si>
     <t>Age</t>
   </si>
@@ -1203,9 +1203,6 @@
   </si>
   <si>
     <t>Judges-13</t>
-  </si>
-  <si>
-    <t>Communtues</t>
   </si>
   <si>
     <t>Region</t>
@@ -2035,21 +2032,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R456"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2067,16 +2064,16 @@
         <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="K1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2084,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2122,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -2161,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -2200,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -2239,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2278,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -2317,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -2356,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -2395,7 +2392,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -2434,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -2473,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -2512,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -2551,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -2590,7 +2587,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -2623,7 +2620,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -2656,7 +2653,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -2689,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2722,7 +2719,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -2755,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -2788,7 +2785,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2821,7 +2818,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -2854,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -2887,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -2920,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -2953,7 +2950,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -2986,7 +2983,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -3019,7 +3016,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -3052,7 +3049,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -3084,7 +3081,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -3116,7 +3113,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -3148,7 +3145,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -3180,7 +3177,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -3212,7 +3209,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -3244,7 +3241,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -3276,7 +3273,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
@@ -3308,7 +3305,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -3340,7 +3337,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -3372,7 +3369,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
@@ -3404,7 +3401,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -3436,7 +3433,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>7</v>
@@ -3468,7 +3465,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
@@ -3500,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -3532,7 +3529,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
@@ -3564,7 +3561,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -3596,7 +3593,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -3628,7 +3625,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
@@ -3660,7 +3657,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
@@ -3692,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
@@ -3724,7 +3721,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
@@ -3756,7 +3753,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -3788,7 +3785,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
@@ -3820,7 +3817,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
@@ -3852,7 +3849,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
@@ -3884,7 +3881,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
@@ -3916,7 +3913,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
@@ -3948,7 +3945,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
@@ -3980,7 +3977,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
@@ -4012,7 +4009,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>7</v>
@@ -4044,7 +4041,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
@@ -4076,7 +4073,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -4108,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -4140,7 +4137,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
@@ -4172,7 +4169,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
@@ -4204,7 +4201,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
@@ -4236,7 +4233,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
@@ -4268,7 +4265,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>7</v>
@@ -4300,7 +4297,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
@@ -4332,7 +4329,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>341</v>
@@ -4364,7 +4361,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>341</v>
@@ -4396,7 +4393,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>341</v>
@@ -4428,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>341</v>
@@ -4460,7 +4457,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>341</v>
@@ -4492,7 +4489,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>341</v>
@@ -4524,7 +4521,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>341</v>
@@ -4556,7 +4553,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>341</v>
@@ -4588,7 +4585,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>341</v>
@@ -4620,7 +4617,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>341</v>
@@ -4652,7 +4649,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>341</v>
@@ -4684,7 +4681,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>341</v>
@@ -4716,7 +4713,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>341</v>
@@ -4748,7 +4745,7 @@
         <v>87</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>341</v>
@@ -4780,7 +4777,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>341</v>
@@ -4812,7 +4809,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>341</v>
@@ -4844,7 +4841,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>341</v>
@@ -4876,7 +4873,7 @@
         <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>341</v>
@@ -4908,7 +4905,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>341</v>
@@ -4940,7 +4937,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>341</v>
@@ -4972,7 +4969,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>341</v>
@@ -5004,7 +5001,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>341</v>
@@ -5036,7 +5033,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>341</v>
@@ -5068,7 +5065,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>341</v>
@@ -5100,7 +5097,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>341</v>
@@ -5132,7 +5129,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>341</v>
@@ -5164,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>341</v>
@@ -5196,7 +5193,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>341</v>
@@ -5228,7 +5225,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>341</v>
@@ -5260,7 +5257,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>341</v>
@@ -5292,7 +5289,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>341</v>
@@ -5324,7 +5321,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>341</v>
@@ -5356,7 +5353,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>341</v>
@@ -5388,7 +5385,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>341</v>
@@ -5420,7 +5417,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>341</v>
@@ -5452,7 +5449,7 @@
         <v>109</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>341</v>
@@ -5484,7 +5481,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>341</v>
@@ -5516,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>341</v>
@@ -5548,7 +5545,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>341</v>
@@ -5580,7 +5577,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>341</v>
@@ -5612,7 +5609,7 @@
         <v>114</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>341</v>
@@ -5644,7 +5641,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>341</v>
@@ -5676,7 +5673,7 @@
         <v>116</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>341</v>
@@ -5708,7 +5705,7 @@
         <v>117</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>341</v>
@@ -5740,7 +5737,7 @@
         <v>118</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>341</v>
@@ -5772,7 +5769,7 @@
         <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>341</v>
@@ -5804,7 +5801,7 @@
         <v>120</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>341</v>
@@ -5836,7 +5833,7 @@
         <v>121</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>341</v>
@@ -5868,7 +5865,7 @@
         <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>341</v>
@@ -5900,7 +5897,7 @@
         <v>123</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>341</v>
@@ -5932,7 +5929,7 @@
         <v>124</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>341</v>
@@ -5964,7 +5961,7 @@
         <v>125</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>341</v>
@@ -5996,7 +5993,7 @@
         <v>126</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>341</v>
@@ -6028,7 +6025,7 @@
         <v>127</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>341</v>
@@ -6060,7 +6057,7 @@
         <v>128</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>341</v>
@@ -6092,7 +6089,7 @@
         <v>129</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>341</v>
@@ -6124,7 +6121,7 @@
         <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>341</v>
@@ -6156,7 +6153,7 @@
         <v>131</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>341</v>
@@ -6188,7 +6185,7 @@
         <v>132</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>341</v>
@@ -6220,7 +6217,7 @@
         <v>133</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>341</v>
@@ -6252,7 +6249,7 @@
         <v>134</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>341</v>
@@ -6284,7 +6281,7 @@
         <v>135</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>341</v>
@@ -6316,7 +6313,7 @@
         <v>136</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>341</v>
@@ -6348,7 +6345,7 @@
         <v>137</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>341</v>
@@ -6380,7 +6377,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>341</v>
@@ -6412,7 +6409,7 @@
         <v>139</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>341</v>
@@ -6444,7 +6441,7 @@
         <v>140</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>341</v>
@@ -6476,7 +6473,7 @@
         <v>141</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>341</v>
@@ -6508,7 +6505,7 @@
         <v>142</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>341</v>
@@ -6540,7 +6537,7 @@
         <v>143</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>341</v>
@@ -6572,7 +6569,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>341</v>
@@ -6604,7 +6601,7 @@
         <v>145</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>341</v>
@@ -6636,7 +6633,7 @@
         <v>146</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>341</v>
@@ -6668,7 +6665,7 @@
         <v>147</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>341</v>
@@ -6700,7 +6697,7 @@
         <v>148</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>341</v>
@@ -6732,7 +6729,7 @@
         <v>149</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>341</v>
@@ -6764,7 +6761,7 @@
         <v>150</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>341</v>
@@ -6796,7 +6793,7 @@
         <v>151</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>341</v>
@@ -6828,7 +6825,7 @@
         <v>152</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>341</v>
@@ -6860,7 +6857,7 @@
         <v>153</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>341</v>
@@ -6892,7 +6889,7 @@
         <v>154</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>341</v>
@@ -6924,7 +6921,7 @@
         <v>155</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>341</v>
@@ -6956,7 +6953,7 @@
         <v>156</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>341</v>
@@ -6988,7 +6985,7 @@
         <v>157</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>341</v>
@@ -7020,7 +7017,7 @@
         <v>158</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>341</v>
@@ -7052,7 +7049,7 @@
         <v>159</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>341</v>
@@ -7084,7 +7081,7 @@
         <v>160</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>341</v>
@@ -7116,7 +7113,7 @@
         <v>161</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>341</v>
@@ -7148,7 +7145,7 @@
         <v>162</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>341</v>
@@ -7180,7 +7177,7 @@
         <v>163</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>341</v>
@@ -7212,7 +7209,7 @@
         <v>164</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>341</v>
@@ -7244,7 +7241,7 @@
         <v>165</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>341</v>
@@ -7276,7 +7273,7 @@
         <v>166</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>341</v>
@@ -7308,7 +7305,7 @@
         <v>167</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>341</v>
@@ -7340,7 +7337,7 @@
         <v>168</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>341</v>
@@ -7372,7 +7369,7 @@
         <v>169</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>341</v>
@@ -7404,7 +7401,7 @@
         <v>170</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>341</v>
@@ -7436,7 +7433,7 @@
         <v>171</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>341</v>
@@ -7468,7 +7465,7 @@
         <v>172</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>341</v>
@@ -7500,7 +7497,7 @@
         <v>173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>341</v>
@@ -7532,7 +7529,7 @@
         <v>174</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>341</v>
@@ -7564,7 +7561,7 @@
         <v>175</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>341</v>
@@ -7596,7 +7593,7 @@
         <v>176</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>341</v>
@@ -7628,7 +7625,7 @@
         <v>177</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>341</v>
@@ -7660,7 +7657,7 @@
         <v>178</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>341</v>
@@ -7692,7 +7689,7 @@
         <v>179</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>341</v>
@@ -7724,7 +7721,7 @@
         <v>180</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>341</v>
@@ -7756,7 +7753,7 @@
         <v>181</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>341</v>
@@ -7788,7 +7785,7 @@
         <v>182</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>341</v>
@@ -7820,7 +7817,7 @@
         <v>183</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>341</v>
@@ -7852,7 +7849,7 @@
         <v>184</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>341</v>
@@ -7884,7 +7881,7 @@
         <v>185</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>341</v>
@@ -7916,7 +7913,7 @@
         <v>186</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>341</v>
@@ -7948,7 +7945,7 @@
         <v>187</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>341</v>
@@ -7980,7 +7977,7 @@
         <v>188</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>341</v>
@@ -8012,7 +8009,7 @@
         <v>189</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>341</v>
@@ -8044,7 +8041,7 @@
         <v>190</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>342</v>
@@ -8076,7 +8073,7 @@
         <v>191</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>342</v>
@@ -8108,7 +8105,7 @@
         <v>192</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>342</v>
@@ -8140,7 +8137,7 @@
         <v>193</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>342</v>
@@ -8172,7 +8169,7 @@
         <v>194</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>342</v>
@@ -8204,7 +8201,7 @@
         <v>195</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>342</v>
@@ -8236,7 +8233,7 @@
         <v>196</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>342</v>
@@ -8268,7 +8265,7 @@
         <v>197</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>342</v>
@@ -8300,7 +8297,7 @@
         <v>198</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>342</v>
@@ -8332,7 +8329,7 @@
         <v>199</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>342</v>
@@ -8364,7 +8361,7 @@
         <v>200</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>342</v>
@@ -8396,7 +8393,7 @@
         <v>201</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>342</v>
@@ -8428,7 +8425,7 @@
         <v>202</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>342</v>
@@ -8460,7 +8457,7 @@
         <v>203</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>342</v>
@@ -8492,7 +8489,7 @@
         <v>204</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>342</v>
@@ -8524,7 +8521,7 @@
         <v>205</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>342</v>
@@ -8556,7 +8553,7 @@
         <v>206</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>342</v>
@@ -8588,7 +8585,7 @@
         <v>207</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>342</v>
@@ -8620,7 +8617,7 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>342</v>
@@ -8652,7 +8649,7 @@
         <v>209</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>342</v>
@@ -8684,7 +8681,7 @@
         <v>210</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>342</v>
@@ -8716,7 +8713,7 @@
         <v>211</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>342</v>
@@ -8748,7 +8745,7 @@
         <v>212</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>342</v>
@@ -8780,7 +8777,7 @@
         <v>213</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>342</v>
@@ -8812,7 +8809,7 @@
         <v>214</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>342</v>
@@ -8844,7 +8841,7 @@
         <v>215</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>342</v>
@@ -8876,7 +8873,7 @@
         <v>216</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>342</v>
@@ -8908,7 +8905,7 @@
         <v>217</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>342</v>
@@ -8940,7 +8937,7 @@
         <v>218</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>342</v>
@@ -8972,7 +8969,7 @@
         <v>219</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>342</v>
@@ -9004,7 +9001,7 @@
         <v>220</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>342</v>
@@ -9036,7 +9033,7 @@
         <v>221</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>342</v>
@@ -9068,7 +9065,7 @@
         <v>222</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>342</v>
@@ -9100,7 +9097,7 @@
         <v>223</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>342</v>
@@ -9132,7 +9129,7 @@
         <v>224</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>342</v>
@@ -9164,7 +9161,7 @@
         <v>225</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>342</v>
@@ -9196,7 +9193,7 @@
         <v>226</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>342</v>
@@ -9228,7 +9225,7 @@
         <v>227</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>342</v>
@@ -9260,7 +9257,7 @@
         <v>228</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>342</v>
@@ -9292,7 +9289,7 @@
         <v>229</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>342</v>
@@ -9324,7 +9321,7 @@
         <v>230</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>342</v>
@@ -9356,7 +9353,7 @@
         <v>231</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>342</v>
@@ -9388,7 +9385,7 @@
         <v>232</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>342</v>
@@ -9420,7 +9417,7 @@
         <v>233</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>342</v>
@@ -9452,7 +9449,7 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>342</v>
@@ -9484,7 +9481,7 @@
         <v>235</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>342</v>
@@ -9516,7 +9513,7 @@
         <v>236</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>342</v>
@@ -9548,7 +9545,7 @@
         <v>237</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>342</v>
@@ -9580,7 +9577,7 @@
         <v>238</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>342</v>
@@ -9612,7 +9609,7 @@
         <v>239</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>342</v>
@@ -9644,7 +9641,7 @@
         <v>240</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>342</v>
@@ -9676,7 +9673,7 @@
         <v>241</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>342</v>
@@ -9708,7 +9705,7 @@
         <v>242</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>342</v>
@@ -9740,7 +9737,7 @@
         <v>243</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>342</v>
@@ -9772,7 +9769,7 @@
         <v>244</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>342</v>
@@ -9804,7 +9801,7 @@
         <v>245</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>342</v>
@@ -9836,7 +9833,7 @@
         <v>246</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>342</v>
@@ -9868,7 +9865,7 @@
         <v>247</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>342</v>
@@ -9900,7 +9897,7 @@
         <v>248</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>342</v>
@@ -9932,7 +9929,7 @@
         <v>249</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>342</v>
@@ -9964,7 +9961,7 @@
         <v>250</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>342</v>
@@ -9996,7 +9993,7 @@
         <v>251</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>342</v>
@@ -10028,7 +10025,7 @@
         <v>252</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>342</v>
@@ -10060,7 +10057,7 @@
         <v>253</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>342</v>
@@ -10092,7 +10089,7 @@
         <v>254</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>342</v>
@@ -10124,7 +10121,7 @@
         <v>255</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>342</v>
@@ -10156,7 +10153,7 @@
         <v>256</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>342</v>
@@ -10188,7 +10185,7 @@
         <v>257</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>342</v>
@@ -10220,7 +10217,7 @@
         <v>258</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>342</v>
@@ -10252,7 +10249,7 @@
         <v>259</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>342</v>
@@ -10284,7 +10281,7 @@
         <v>260</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>342</v>
@@ -10316,7 +10313,7 @@
         <v>261</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>342</v>
@@ -10348,7 +10345,7 @@
         <v>262</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>342</v>
@@ -10380,7 +10377,7 @@
         <v>263</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>342</v>
@@ -10412,7 +10409,7 @@
         <v>264</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>342</v>
@@ -10444,7 +10441,7 @@
         <v>265</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>342</v>
@@ -10476,7 +10473,7 @@
         <v>266</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>342</v>
@@ -10508,7 +10505,7 @@
         <v>267</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>342</v>
@@ -10540,7 +10537,7 @@
         <v>268</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>342</v>
@@ -10572,7 +10569,7 @@
         <v>269</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>342</v>
@@ -10604,7 +10601,7 @@
         <v>270</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>342</v>
@@ -10636,7 +10633,7 @@
         <v>271</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>342</v>
@@ -10668,7 +10665,7 @@
         <v>272</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>342</v>
@@ -10700,7 +10697,7 @@
         <v>273</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>342</v>
@@ -10732,7 +10729,7 @@
         <v>274</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>342</v>
@@ -10764,7 +10761,7 @@
         <v>275</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>342</v>
@@ -10796,7 +10793,7 @@
         <v>276</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>342</v>
@@ -10828,7 +10825,7 @@
         <v>277</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>342</v>
@@ -10860,7 +10857,7 @@
         <v>278</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>342</v>
@@ -10892,7 +10889,7 @@
         <v>279</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>342</v>
@@ -10924,7 +10921,7 @@
         <v>280</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>342</v>
@@ -10956,7 +10953,7 @@
         <v>281</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>342</v>
@@ -10988,7 +10985,7 @@
         <v>282</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>342</v>
@@ -11020,7 +11017,7 @@
         <v>283</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>342</v>
@@ -11052,7 +11049,7 @@
         <v>284</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>342</v>
@@ -11084,7 +11081,7 @@
         <v>285</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>342</v>
@@ -11116,7 +11113,7 @@
         <v>286</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>342</v>
@@ -11148,7 +11145,7 @@
         <v>287</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>342</v>
@@ -11180,7 +11177,7 @@
         <v>288</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>343</v>
@@ -11212,7 +11209,7 @@
         <v>289</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>343</v>
@@ -11244,7 +11241,7 @@
         <v>290</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>343</v>
@@ -11276,7 +11273,7 @@
         <v>291</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>343</v>
@@ -11308,7 +11305,7 @@
         <v>292</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>343</v>
@@ -11340,7 +11337,7 @@
         <v>293</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>343</v>
@@ -11372,7 +11369,7 @@
         <v>294</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>343</v>
@@ -11404,7 +11401,7 @@
         <v>295</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>343</v>
@@ -11436,7 +11433,7 @@
         <v>296</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>343</v>
@@ -11468,7 +11465,7 @@
         <v>297</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>343</v>
@@ -11500,7 +11497,7 @@
         <v>298</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>343</v>
@@ -11532,7 +11529,7 @@
         <v>299</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>343</v>
@@ -11564,7 +11561,7 @@
         <v>300</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>343</v>
@@ -11596,7 +11593,7 @@
         <v>301</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>343</v>
@@ -11628,7 +11625,7 @@
         <v>302</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>343</v>
@@ -11660,7 +11657,7 @@
         <v>303</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>343</v>
@@ -11692,7 +11689,7 @@
         <v>304</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>343</v>
@@ -11724,7 +11721,7 @@
         <v>305</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>343</v>
@@ -11756,7 +11753,7 @@
         <v>306</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>343</v>
@@ -11788,7 +11785,7 @@
         <v>307</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>343</v>
@@ -11820,7 +11817,7 @@
         <v>308</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>343</v>
@@ -11852,7 +11849,7 @@
         <v>309</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>343</v>
@@ -11884,7 +11881,7 @@
         <v>310</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>343</v>
@@ -11916,7 +11913,7 @@
         <v>311</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>343</v>
@@ -11948,7 +11945,7 @@
         <v>312</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>343</v>
@@ -11980,7 +11977,7 @@
         <v>313</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>343</v>
@@ -12012,7 +12009,7 @@
         <v>314</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>343</v>
@@ -12044,7 +12041,7 @@
         <v>315</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>343</v>
@@ -12076,7 +12073,7 @@
         <v>316</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>343</v>
@@ -12108,7 +12105,7 @@
         <v>317</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>343</v>
@@ -12140,7 +12137,7 @@
         <v>318</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>343</v>
@@ -12172,7 +12169,7 @@
         <v>319</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>343</v>
@@ -12204,7 +12201,7 @@
         <v>320</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>343</v>
@@ -12236,7 +12233,7 @@
         <v>321</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>343</v>
@@ -12268,7 +12265,7 @@
         <v>322</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>343</v>
@@ -12300,7 +12297,7 @@
         <v>323</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>343</v>
@@ -12332,7 +12329,7 @@
         <v>324</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>343</v>
@@ -12364,7 +12361,7 @@
         <v>325</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>343</v>
@@ -12396,7 +12393,7 @@
         <v>326</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>343</v>
@@ -12428,7 +12425,7 @@
         <v>327</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>343</v>
@@ -12460,7 +12457,7 @@
         <v>328</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>343</v>
@@ -12492,7 +12489,7 @@
         <v>329</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>343</v>
@@ -12524,7 +12521,7 @@
         <v>330</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>343</v>
@@ -12556,7 +12553,7 @@
         <v>331</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>343</v>
@@ -12585,10 +12582,10 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>355</v>
@@ -12617,10 +12614,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>355</v>
@@ -12649,10 +12646,10 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>355</v>
@@ -12681,10 +12678,10 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>355</v>
@@ -12713,10 +12710,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>355</v>
@@ -12745,10 +12742,10 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>355</v>
@@ -12777,10 +12774,10 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>355</v>
@@ -12809,10 +12806,10 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>355</v>
@@ -12841,10 +12838,10 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>355</v>
@@ -12873,10 +12870,10 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>355</v>
@@ -12905,10 +12902,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>355</v>
@@ -12937,10 +12934,10 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>355</v>
@@ -12969,10 +12966,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>355</v>
@@ -13001,10 +12998,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>355</v>
@@ -13033,10 +13030,10 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>355</v>
@@ -13065,10 +13062,10 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>355</v>
@@ -13097,10 +13094,10 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>355</v>
@@ -13129,10 +13126,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>355</v>
@@ -13161,10 +13158,10 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>355</v>
@@ -13193,10 +13190,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>355</v>
@@ -13225,10 +13222,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>355</v>
@@ -13257,10 +13254,10 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>355</v>
@@ -13289,10 +13286,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>355</v>
@@ -13321,10 +13318,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>355</v>
@@ -13353,10 +13350,10 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>355</v>
@@ -13385,10 +13382,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>355</v>
@@ -13417,10 +13414,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>355</v>
@@ -13449,10 +13446,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>355</v>
@@ -13481,10 +13478,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>355</v>
@@ -13513,10 +13510,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>355</v>
@@ -13545,10 +13542,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>355</v>
@@ -13577,10 +13574,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>355</v>
@@ -13609,10 +13606,10 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>355</v>
@@ -13641,10 +13638,10 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>355</v>
@@ -13673,10 +13670,10 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>355</v>
@@ -13705,10 +13702,10 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>355</v>
@@ -13737,10 +13734,10 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>355</v>
@@ -13769,10 +13766,10 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>355</v>
@@ -13801,10 +13798,10 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>355</v>
@@ -13833,10 +13830,10 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>355</v>
@@ -13865,10 +13862,10 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>355</v>
@@ -13897,10 +13894,10 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>355</v>
@@ -13929,10 +13926,10 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>355</v>
@@ -13961,10 +13958,10 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>355</v>
@@ -13993,10 +13990,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>355</v>
@@ -14025,10 +14022,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>355</v>
@@ -14057,10 +14054,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>355</v>
@@ -14089,10 +14086,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>355</v>
@@ -14121,10 +14118,10 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>355</v>
@@ -14153,10 +14150,10 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>355</v>
@@ -14185,10 +14182,10 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>355</v>
@@ -14217,10 +14214,10 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>355</v>
@@ -14249,10 +14246,10 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>355</v>
@@ -14281,10 +14278,10 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>355</v>
@@ -14313,10 +14310,10 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>355</v>
@@ -14345,10 +14342,10 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>355</v>
@@ -14377,10 +14374,10 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>355</v>
@@ -14409,10 +14406,10 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>355</v>
@@ -14441,10 +14438,10 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>355</v>
@@ -14473,10 +14470,10 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>355</v>
@@ -14505,10 +14502,10 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>355</v>
@@ -14537,10 +14534,10 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>355</v>
@@ -14569,10 +14566,10 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>355</v>
@@ -14601,10 +14598,10 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>355</v>
@@ -14633,10 +14630,10 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>355</v>
@@ -14665,10 +14662,10 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>355</v>
@@ -14697,10 +14694,10 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>355</v>
@@ -14729,10 +14726,10 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>355</v>
@@ -14761,10 +14758,10 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>355</v>
@@ -14793,10 +14790,10 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>355</v>
@@ -14825,10 +14822,10 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>355</v>
@@ -14857,10 +14854,10 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>355</v>
@@ -14889,10 +14886,10 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>355</v>
@@ -14921,10 +14918,10 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>355</v>
@@ -14953,10 +14950,10 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>355</v>
@@ -14985,10 +14982,10 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>355</v>
@@ -15017,10 +15014,10 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>355</v>
@@ -15049,10 +15046,10 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>355</v>
@@ -15081,10 +15078,10 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>355</v>
@@ -15113,10 +15110,10 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>355</v>
@@ -15145,10 +15142,10 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>355</v>
@@ -15177,10 +15174,10 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>355</v>
@@ -15209,10 +15206,10 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>355</v>
@@ -15241,10 +15238,10 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>355</v>
@@ -15273,10 +15270,10 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>355</v>
@@ -15305,10 +15302,10 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>355</v>
@@ -15337,10 +15334,10 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>355</v>
@@ -15369,10 +15366,10 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>355</v>
@@ -15401,10 +15398,10 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>355</v>
@@ -15433,10 +15430,10 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>355</v>
@@ -15465,10 +15462,10 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>355</v>
@@ -15497,10 +15494,10 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>355</v>
@@ -15529,10 +15526,10 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>355</v>
@@ -15561,10 +15558,10 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>355</v>
@@ -15593,10 +15590,10 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>355</v>
@@ -15625,10 +15622,10 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>355</v>
@@ -15657,10 +15654,10 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>355</v>
@@ -15689,10 +15686,10 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>355</v>
@@ -15721,10 +15718,10 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>355</v>
@@ -15753,10 +15750,10 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>355</v>
@@ -15785,10 +15782,10 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>355</v>
@@ -15817,10 +15814,10 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>355</v>
@@ -15849,10 +15846,10 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>355</v>
@@ -15881,10 +15878,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>355</v>
@@ -15913,10 +15910,10 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>355</v>
@@ -15945,10 +15942,10 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>355</v>
@@ -15977,10 +15974,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>355</v>
@@ -16009,10 +16006,10 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>355</v>
@@ -16041,10 +16038,10 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>355</v>
@@ -16073,10 +16070,10 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>355</v>
@@ -16105,10 +16102,10 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>355</v>
@@ -16137,10 +16134,10 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>355</v>
@@ -16169,10 +16166,10 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>355</v>
@@ -16201,10 +16198,10 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>355</v>
@@ -16233,10 +16230,10 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>355</v>
@@ -16265,10 +16262,10 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>355</v>
@@ -16297,10 +16294,10 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>355</v>
@@ -16329,10 +16326,10 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>355</v>
@@ -16361,10 +16358,10 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>355</v>
@@ -16393,10 +16390,10 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>355</v>
@@ -16425,10 +16422,10 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>355</v>
@@ -16457,10 +16454,10 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>355</v>
@@ -16489,10 +16486,10 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>355</v>
@@ -16521,10 +16518,10 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>355</v>
@@ -16553,10 +16550,10 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>355</v>
@@ -16585,10 +16582,10 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>355</v>
@@ -16617,10 +16614,10 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>355</v>
@@ -16649,10 +16646,10 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>355</v>
@@ -16681,10 +16678,10 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>355</v>
@@ -16713,10 +16710,10 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>355</v>
@@ -17486,8 +17483,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17500,13 +17497,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -17524,16 +17521,16 @@
         <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="K1" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -17541,7 +17538,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>358</v>
@@ -17581,7 +17578,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>358</v>
@@ -17621,7 +17618,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>358</v>
@@ -17661,7 +17658,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
         <v>358</v>
@@ -17701,7 +17698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
         <v>358</v>
@@ -17741,7 +17738,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
         <v>358</v>
@@ -17781,7 +17778,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
         <v>358</v>
@@ -17821,7 +17818,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
         <v>358</v>
@@ -17861,7 +17858,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
         <v>358</v>
@@ -17901,7 +17898,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
         <v>358</v>
@@ -17941,7 +17938,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
         <v>358</v>
@@ -17981,7 +17978,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
         <v>358</v>
@@ -18021,7 +18018,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
         <v>358</v>
@@ -18061,7 +18058,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
         <v>358</v>
@@ -18095,7 +18092,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
         <v>358</v>
@@ -18127,7 +18124,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
         <v>358</v>
@@ -18159,7 +18156,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
         <v>358</v>
@@ -18191,7 +18188,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
         <v>358</v>
@@ -18223,7 +18220,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
         <v>358</v>
@@ -18255,7 +18252,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
         <v>358</v>
@@ -18287,7 +18284,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
         <v>358</v>
@@ -18319,7 +18316,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
         <v>358</v>
@@ -18351,7 +18348,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
         <v>358</v>
@@ -18383,7 +18380,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
         <v>358</v>
@@ -18415,7 +18412,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
         <v>358</v>
@@ -18447,7 +18444,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C27" t="s">
         <v>358</v>
@@ -18479,7 +18476,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
         <v>358</v>
@@ -18511,7 +18508,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
         <v>358</v>
@@ -18543,7 +18540,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
         <v>358</v>
@@ -18575,7 +18572,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>358</v>
@@ -18607,7 +18604,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
         <v>358</v>
@@ -18639,7 +18636,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
         <v>358</v>
@@ -18671,7 +18668,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
         <v>358</v>
@@ -18703,7 +18700,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
         <v>358</v>
@@ -18735,7 +18732,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -18767,7 +18764,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
         <v>358</v>
@@ -18799,7 +18796,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
         <v>358</v>
@@ -18831,7 +18828,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" t="s">
         <v>358</v>
@@ -18863,7 +18860,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
         <v>358</v>
@@ -18895,7 +18892,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
         <v>358</v>
@@ -18927,7 +18924,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
         <v>358</v>
@@ -18959,7 +18956,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
         <v>358</v>
@@ -18991,7 +18988,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
         <v>358</v>
@@ -19023,7 +19020,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
         <v>358</v>
@@ -19055,7 +19052,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
         <v>358</v>
@@ -19087,7 +19084,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
         <v>358</v>
@@ -19119,7 +19116,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
         <v>358</v>
@@ -19151,7 +19148,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
         <v>358</v>
@@ -19183,7 +19180,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
         <v>358</v>
@@ -19215,7 +19212,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
         <v>358</v>
@@ -19247,7 +19244,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
         <v>358</v>
@@ -19279,7 +19276,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
         <v>358</v>
@@ -19311,7 +19308,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s">
         <v>358</v>
@@ -19343,7 +19340,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
         <v>358</v>
@@ -19375,7 +19372,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
         <v>358</v>
@@ -19407,7 +19404,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
         <v>358</v>
@@ -19439,7 +19436,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
         <v>358</v>
@@ -19471,7 +19468,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
         <v>358</v>
@@ -19503,7 +19500,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
         <v>358</v>
@@ -19535,7 +19532,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
         <v>358</v>
@@ -19567,7 +19564,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
         <v>358</v>
@@ -19599,7 +19596,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
         <v>358</v>
@@ -19631,7 +19628,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
         <v>358</v>
@@ -19663,7 +19660,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
         <v>358</v>
@@ -19695,7 +19692,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
         <v>358</v>
@@ -19727,7 +19724,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" t="s">
         <v>358</v>
@@ -19759,7 +19756,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
         <v>358</v>
@@ -19791,7 +19788,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
         <v>358</v>
@@ -19823,7 +19820,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s">
         <v>358</v>
@@ -19855,7 +19852,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
         <v>358</v>
@@ -19887,7 +19884,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
         <v>358</v>
@@ -19919,7 +19916,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
         <v>358</v>
@@ -19951,7 +19948,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
         <v>358</v>
@@ -19983,7 +19980,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
         <v>358</v>
@@ -20015,7 +20012,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
         <v>358</v>
@@ -20047,7 +20044,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
         <v>358</v>
@@ -20079,7 +20076,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
         <v>358</v>
@@ -20111,7 +20108,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
         <v>358</v>
@@ -20143,7 +20140,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
         <v>358</v>
@@ -20175,7 +20172,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
         <v>358</v>
@@ -20207,7 +20204,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C82" t="s">
         <v>358</v>
@@ -20239,7 +20236,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
         <v>358</v>
@@ -20271,7 +20268,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C84" t="s">
         <v>358</v>
@@ -20303,7 +20300,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
         <v>358</v>
@@ -20335,7 +20332,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
         <v>358</v>
@@ -20367,7 +20364,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C87" t="s">
         <v>358</v>
@@ -20399,7 +20396,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
         <v>358</v>
@@ -20431,7 +20428,7 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s">
         <v>358</v>
@@ -20463,7 +20460,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
         <v>358</v>
@@ -20495,7 +20492,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" t="s">
         <v>358</v>
@@ -20527,7 +20524,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C92" t="s">
         <v>358</v>
@@ -20559,7 +20556,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
         <v>358</v>
@@ -20591,7 +20588,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
         <v>358</v>
@@ -20623,7 +20620,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C95" t="s">
         <v>358</v>
@@ -20655,7 +20652,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C96" t="s">
         <v>358</v>
@@ -20687,7 +20684,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C97" t="s">
         <v>358</v>
@@ -20719,7 +20716,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
         <v>358</v>
@@ -20751,7 +20748,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" t="s">
         <v>358</v>
@@ -20783,7 +20780,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
         <v>358</v>
@@ -20815,7 +20812,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C101" t="s">
         <v>358</v>
@@ -20847,7 +20844,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C102" t="s">
         <v>358</v>
@@ -20879,7 +20876,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C103" t="s">
         <v>358</v>
@@ -20911,7 +20908,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C104" t="s">
         <v>358</v>
@@ -20943,7 +20940,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C105" t="s">
         <v>358</v>
@@ -20975,7 +20972,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C106" t="s">
         <v>358</v>
@@ -21007,7 +21004,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C107" t="s">
         <v>358</v>
@@ -21039,7 +21036,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
         <v>358</v>
@@ -21071,7 +21068,7 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C109" t="s">
         <v>358</v>
@@ -21103,7 +21100,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C110" t="s">
         <v>358</v>
@@ -21135,7 +21132,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C111" t="s">
         <v>358</v>
@@ -21167,7 +21164,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C112" t="s">
         <v>358</v>
@@ -21199,7 +21196,7 @@
         <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
         <v>358</v>
@@ -21231,7 +21228,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
         <v>358</v>
@@ -21263,7 +21260,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C115" t="s">
         <v>358</v>
@@ -21295,7 +21292,7 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
         <v>358</v>
@@ -21327,7 +21324,7 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C117" t="s">
         <v>358</v>
@@ -21359,7 +21356,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
         <v>358</v>
@@ -21391,7 +21388,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C119" t="s">
         <v>358</v>
@@ -21423,7 +21420,7 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C120" t="s">
         <v>358</v>
@@ -21455,7 +21452,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
         <v>358</v>
@@ -21487,7 +21484,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
         <v>358</v>
@@ -21519,7 +21516,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s">
         <v>358</v>
@@ -21551,7 +21548,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C124" t="s">
         <v>358</v>
@@ -21583,7 +21580,7 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C125" t="s">
         <v>358</v>
@@ -21615,7 +21612,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C126" t="s">
         <v>358</v>
@@ -21647,7 +21644,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s">
         <v>358</v>
@@ -21679,7 +21676,7 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s">
         <v>358</v>
@@ -21711,7 +21708,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C129" t="s">
         <v>358</v>
@@ -21743,7 +21740,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C130" t="s">
         <v>358</v>
@@ -21775,7 +21772,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C131" t="s">
         <v>358</v>
@@ -21807,7 +21804,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C132" t="s">
         <v>358</v>
@@ -21839,7 +21836,7 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C133" t="s">
         <v>358</v>
@@ -21871,7 +21868,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s">
         <v>358</v>
@@ -21903,7 +21900,7 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C135" t="s">
         <v>358</v>
@@ -21935,7 +21932,7 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
         <v>358</v>
@@ -21967,7 +21964,7 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
         <v>358</v>
@@ -21999,7 +21996,7 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C138" t="s">
         <v>358</v>
@@ -22031,7 +22028,7 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C139" t="s">
         <v>358</v>
@@ -22063,7 +22060,7 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C140" t="s">
         <v>358</v>
@@ -22095,7 +22092,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C141" t="s">
         <v>358</v>
@@ -22127,7 +22124,7 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C142" t="s">
         <v>358</v>
@@ -22159,7 +22156,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C143" t="s">
         <v>358</v>
@@ -22191,7 +22188,7 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C144" t="s">
         <v>358</v>
@@ -22223,7 +22220,7 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C145" t="s">
         <v>358</v>
@@ -22255,7 +22252,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C146" t="s">
         <v>358</v>
@@ -22287,7 +22284,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
         <v>358</v>
@@ -22319,7 +22316,7 @@
         <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
         <v>358</v>
@@ -22351,7 +22348,7 @@
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C149" t="s">
         <v>358</v>
@@ -22383,7 +22380,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
         <v>358</v>
@@ -22415,7 +22412,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s">
         <v>358</v>
@@ -22447,7 +22444,7 @@
         <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C152" t="s">
         <v>358</v>
@@ -22479,7 +22476,7 @@
         <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C153" t="s">
         <v>358</v>
@@ -22511,7 +22508,7 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C154" t="s">
         <v>358</v>
@@ -22543,7 +22540,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C155" t="s">
         <v>358</v>
@@ -22575,7 +22572,7 @@
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
         <v>358</v>
@@ -22607,7 +22604,7 @@
         <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C157" t="s">
         <v>358</v>
@@ -22639,7 +22636,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C158" t="s">
         <v>358</v>
@@ -22671,7 +22668,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C159" t="s">
         <v>358</v>
@@ -22703,7 +22700,7 @@
         <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C160" t="s">
         <v>358</v>
@@ -22735,7 +22732,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C161" t="s">
         <v>358</v>
@@ -22767,7 +22764,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C162" t="s">
         <v>368</v>
@@ -22799,7 +22796,7 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s">
         <v>368</v>
@@ -22831,7 +22828,7 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s">
         <v>368</v>
@@ -22863,7 +22860,7 @@
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
         <v>368</v>
@@ -22895,7 +22892,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" t="s">
         <v>368</v>
@@ -22927,7 +22924,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
         <v>368</v>
@@ -22959,7 +22956,7 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C168" t="s">
         <v>368</v>
@@ -22991,7 +22988,7 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C169" t="s">
         <v>368</v>
@@ -23023,7 +23020,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C170" t="s">
         <v>368</v>
@@ -23055,7 +23052,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
         <v>368</v>
@@ -23087,7 +23084,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C172" t="s">
         <v>368</v>
@@ -23119,7 +23116,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C173" t="s">
         <v>368</v>
@@ -23151,7 +23148,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C174" t="s">
         <v>368</v>
@@ -23183,7 +23180,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C175" t="s">
         <v>368</v>
@@ -23215,7 +23212,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C176" t="s">
         <v>368</v>
@@ -23247,7 +23244,7 @@
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C177" t="s">
         <v>368</v>
@@ -23279,7 +23276,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C178" t="s">
         <v>368</v>
@@ -23311,7 +23308,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C179" t="s">
         <v>368</v>
@@ -23343,7 +23340,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
         <v>368</v>
@@ -23375,7 +23372,7 @@
         <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C181" t="s">
         <v>368</v>
@@ -23407,7 +23404,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C182" t="s">
         <v>368</v>
@@ -23439,7 +23436,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C183" t="s">
         <v>368</v>
@@ -23471,7 +23468,7 @@
         <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C184" t="s">
         <v>368</v>
@@ -23503,7 +23500,7 @@
         <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C185" t="s">
         <v>368</v>
@@ -23535,7 +23532,7 @@
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C186" t="s">
         <v>368</v>
@@ -23567,7 +23564,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C187" t="s">
         <v>368</v>
@@ -23599,7 +23596,7 @@
         <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C188" t="s">
         <v>368</v>
@@ -23631,7 +23628,7 @@
         <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C189" t="s">
         <v>368</v>
@@ -23663,7 +23660,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C190" t="s">
         <v>368</v>
@@ -23695,7 +23692,7 @@
         <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C191" t="s">
         <v>368</v>
@@ -23727,7 +23724,7 @@
         <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C192" t="s">
         <v>368</v>
@@ -23759,7 +23756,7 @@
         <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C193" t="s">
         <v>368</v>
@@ -23791,7 +23788,7 @@
         <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s">
         <v>368</v>
@@ -23823,7 +23820,7 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" t="s">
         <v>368</v>
@@ -23855,7 +23852,7 @@
         <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
         <v>368</v>
@@ -23887,7 +23884,7 @@
         <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
         <v>368</v>
@@ -23919,7 +23916,7 @@
         <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C198" t="s">
         <v>368</v>
@@ -23951,7 +23948,7 @@
         <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
         <v>368</v>
@@ -23983,7 +23980,7 @@
         <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C200" t="s">
         <v>368</v>
@@ -24015,7 +24012,7 @@
         <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C201" t="s">
         <v>368</v>
@@ -24047,7 +24044,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
         <v>368</v>
@@ -24079,7 +24076,7 @@
         <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C203" t="s">
         <v>368</v>
@@ -24111,7 +24108,7 @@
         <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C204" t="s">
         <v>368</v>
@@ -24143,7 +24140,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C205" t="s">
         <v>368</v>
@@ -24175,7 +24172,7 @@
         <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
         <v>368</v>
@@ -24207,7 +24204,7 @@
         <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C207" t="s">
         <v>368</v>
@@ -24239,7 +24236,7 @@
         <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C208" t="s">
         <v>368</v>
@@ -24271,7 +24268,7 @@
         <v>214</v>
       </c>
       <c r="B209" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C209" t="s">
         <v>368</v>
@@ -24303,7 +24300,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C210" t="s">
         <v>368</v>
@@ -24335,7 +24332,7 @@
         <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C211" t="s">
         <v>368</v>
@@ -24367,7 +24364,7 @@
         <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C212" t="s">
         <v>368</v>
@@ -24399,7 +24396,7 @@
         <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C213" t="s">
         <v>368</v>
@@ -24431,7 +24428,7 @@
         <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C214" t="s">
         <v>368</v>
@@ -24463,7 +24460,7 @@
         <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C215" t="s">
         <v>368</v>
@@ -24495,7 +24492,7 @@
         <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C216" t="s">
         <v>368</v>
@@ -24527,7 +24524,7 @@
         <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C217" t="s">
         <v>368</v>
@@ -24559,7 +24556,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C218" t="s">
         <v>368</v>
@@ -24591,7 +24588,7 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C219" t="s">
         <v>368</v>
@@ -24623,7 +24620,7 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C220" t="s">
         <v>368</v>
@@ -24655,7 +24652,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C221" t="s">
         <v>368</v>
@@ -24687,7 +24684,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C222" t="s">
         <v>368</v>
@@ -24719,7 +24716,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C223" t="s">
         <v>368</v>
@@ -24751,7 +24748,7 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C224" t="s">
         <v>368</v>
@@ -24783,7 +24780,7 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C225" t="s">
         <v>368</v>
@@ -24815,7 +24812,7 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C226" t="s">
         <v>368</v>
@@ -24847,7 +24844,7 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C227" t="s">
         <v>368</v>
@@ -24879,7 +24876,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C228" t="s">
         <v>368</v>
@@ -24911,7 +24908,7 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C229" t="s">
         <v>368</v>
@@ -24943,7 +24940,7 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C230" t="s">
         <v>368</v>
@@ -24975,7 +24972,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C231" t="s">
         <v>368</v>
@@ -25007,7 +25004,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C232" t="s">
         <v>368</v>
@@ -25039,7 +25036,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C233" t="s">
         <v>368</v>
@@ -25071,7 +25068,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C234" t="s">
         <v>368</v>
@@ -25103,7 +25100,7 @@
         <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C235" t="s">
         <v>368</v>
@@ -25135,7 +25132,7 @@
         <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C236" t="s">
         <v>368</v>
@@ -25167,7 +25164,7 @@
         <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C237" t="s">
         <v>368</v>
@@ -25199,7 +25196,7 @@
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C238" t="s">
         <v>368</v>
@@ -25231,7 +25228,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C239" t="s">
         <v>368</v>
@@ -25263,7 +25260,7 @@
         <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C240" t="s">
         <v>368</v>
@@ -25295,7 +25292,7 @@
         <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C241" t="s">
         <v>368</v>
@@ -25327,7 +25324,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C242" t="s">
         <v>368</v>
@@ -25359,7 +25356,7 @@
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C243" t="s">
         <v>368</v>
@@ -25391,7 +25388,7 @@
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C244" t="s">
         <v>368</v>
@@ -25423,7 +25420,7 @@
         <v>250</v>
       </c>
       <c r="B245" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C245" t="s">
         <v>368</v>
@@ -25455,7 +25452,7 @@
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C246" t="s">
         <v>368</v>
@@ -25487,7 +25484,7 @@
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C247" t="s">
         <v>368</v>
@@ -25519,7 +25516,7 @@
         <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C248" t="s">
         <v>368</v>
@@ -25551,7 +25548,7 @@
         <v>254</v>
       </c>
       <c r="B249" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C249" t="s">
         <v>368</v>
@@ -25583,7 +25580,7 @@
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C250" t="s">
         <v>368</v>
@@ -25615,7 +25612,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C251" t="s">
         <v>368</v>
@@ -25647,7 +25644,7 @@
         <v>257</v>
       </c>
       <c r="B252" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C252" t="s">
         <v>368</v>
@@ -25679,7 +25676,7 @@
         <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C253" t="s">
         <v>368</v>
@@ -25711,7 +25708,7 @@
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C254" t="s">
         <v>368</v>
@@ -25743,7 +25740,7 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C255" t="s">
         <v>368</v>
@@ -25775,7 +25772,7 @@
         <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C256" t="s">
         <v>368</v>
@@ -25807,7 +25804,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C257" t="s">
         <v>368</v>
@@ -25839,7 +25836,7 @@
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C258" t="s">
         <v>368</v>
@@ -25871,7 +25868,7 @@
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C259" t="s">
         <v>368</v>
@@ -25903,7 +25900,7 @@
         <v>265</v>
       </c>
       <c r="B260" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C260" t="s">
         <v>368</v>
@@ -25935,7 +25932,7 @@
         <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C261" t="s">
         <v>368</v>
@@ -25967,7 +25964,7 @@
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C262" t="s">
         <v>368</v>
@@ -25999,7 +25996,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C263" t="s">
         <v>368</v>
@@ -26031,7 +26028,7 @@
         <v>269</v>
       </c>
       <c r="B264" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C264" t="s">
         <v>368</v>
@@ -26063,7 +26060,7 @@
         <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C265" t="s">
         <v>368</v>
@@ -26095,7 +26092,7 @@
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C266" t="s">
         <v>368</v>
@@ -26127,7 +26124,7 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C267" t="s">
         <v>368</v>
@@ -26159,7 +26156,7 @@
         <v>273</v>
       </c>
       <c r="B268" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C268" t="s">
         <v>368</v>
@@ -26191,7 +26188,7 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C269" t="s">
         <v>368</v>
@@ -26223,7 +26220,7 @@
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C270" t="s">
         <v>368</v>
@@ -26255,7 +26252,7 @@
         <v>276</v>
       </c>
       <c r="B271" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C271" t="s">
         <v>368</v>
@@ -26287,7 +26284,7 @@
         <v>277</v>
       </c>
       <c r="B272" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C272" t="s">
         <v>368</v>
@@ -26319,7 +26316,7 @@
         <v>278</v>
       </c>
       <c r="B273" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C273" t="s">
         <v>368</v>
@@ -26351,7 +26348,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C274" t="s">
         <v>368</v>
@@ -26383,7 +26380,7 @@
         <v>280</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C275" t="s">
         <v>368</v>
@@ -26415,7 +26412,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C276" t="s">
         <v>368</v>
@@ -26447,7 +26444,7 @@
         <v>282</v>
       </c>
       <c r="B277" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C277" t="s">
         <v>368</v>
@@ -26479,7 +26476,7 @@
         <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C278" t="s">
         <v>368</v>
@@ -26511,7 +26508,7 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C279" t="s">
         <v>368</v>
@@ -26543,7 +26540,7 @@
         <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C280" t="s">
         <v>368</v>
@@ -26575,7 +26572,7 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C281" t="s">
         <v>368</v>
@@ -26607,7 +26604,7 @@
         <v>287</v>
       </c>
       <c r="B282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
         <v>368</v>
@@ -26639,7 +26636,7 @@
         <v>288</v>
       </c>
       <c r="B283" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C283" t="s">
         <v>368</v>
@@ -26671,7 +26668,7 @@
         <v>289</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C284" t="s">
         <v>368</v>
@@ -26703,7 +26700,7 @@
         <v>290</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
         <v>368</v>
@@ -26735,7 +26732,7 @@
         <v>291</v>
       </c>
       <c r="B286" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C286" t="s">
         <v>368</v>
@@ -26767,7 +26764,7 @@
         <v>292</v>
       </c>
       <c r="B287" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C287" t="s">
         <v>368</v>
@@ -26799,7 +26796,7 @@
         <v>293</v>
       </c>
       <c r="B288" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -26831,7 +26828,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C289" t="s">
         <v>368</v>
@@ -26863,7 +26860,7 @@
         <v>295</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C290" t="s">
         <v>368</v>
@@ -26895,7 +26892,7 @@
         <v>296</v>
       </c>
       <c r="B291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C291" t="s">
         <v>368</v>
@@ -26927,7 +26924,7 @@
         <v>297</v>
       </c>
       <c r="B292" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C292" t="s">
         <v>368</v>
@@ -26959,7 +26956,7 @@
         <v>298</v>
       </c>
       <c r="B293" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C293" t="s">
         <v>368</v>
@@ -26991,7 +26988,7 @@
         <v>299</v>
       </c>
       <c r="B294" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C294" t="s">
         <v>368</v>
@@ -27023,7 +27020,7 @@
         <v>300</v>
       </c>
       <c r="B295" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C295" t="s">
         <v>368</v>
@@ -27055,7 +27052,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C296" t="s">
         <v>368</v>
@@ -27087,7 +27084,7 @@
         <v>302</v>
       </c>
       <c r="B297" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C297" t="s">
         <v>368</v>
@@ -27119,7 +27116,7 @@
         <v>303</v>
       </c>
       <c r="B298" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" t="s">
         <v>368</v>
@@ -27151,7 +27148,7 @@
         <v>304</v>
       </c>
       <c r="B299" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C299" t="s">
         <v>368</v>
@@ -27183,7 +27180,7 @@
         <v>305</v>
       </c>
       <c r="B300" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C300" t="s">
         <v>368</v>
@@ -27215,7 +27212,7 @@
         <v>306</v>
       </c>
       <c r="B301" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C301" t="s">
         <v>368</v>
@@ -27247,7 +27244,7 @@
         <v>307</v>
       </c>
       <c r="B302" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C302" t="s">
         <v>368</v>
@@ -27279,7 +27276,7 @@
         <v>308</v>
       </c>
       <c r="B303" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" t="s">
         <v>368</v>
@@ -27311,7 +27308,7 @@
         <v>309</v>
       </c>
       <c r="B304" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C304" t="s">
         <v>368</v>
@@ -27343,7 +27340,7 @@
         <v>310</v>
       </c>
       <c r="B305" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C305" t="s">
         <v>368</v>
@@ -27375,7 +27372,7 @@
         <v>311</v>
       </c>
       <c r="B306" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C306" t="s">
         <v>368</v>
@@ -27407,7 +27404,7 @@
         <v>312</v>
       </c>
       <c r="B307" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C307" t="s">
         <v>368</v>
@@ -27439,7 +27436,7 @@
         <v>313</v>
       </c>
       <c r="B308" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C308" t="s">
         <v>368</v>
@@ -27471,7 +27468,7 @@
         <v>314</v>
       </c>
       <c r="B309" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C309" t="s">
         <v>368</v>
@@ -27503,7 +27500,7 @@
         <v>315</v>
       </c>
       <c r="B310" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C310" t="s">
         <v>368</v>
@@ -27535,7 +27532,7 @@
         <v>316</v>
       </c>
       <c r="B311" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C311" t="s">
         <v>368</v>
@@ -27567,7 +27564,7 @@
         <v>317</v>
       </c>
       <c r="B312" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C312" t="s">
         <v>368</v>
@@ -27599,7 +27596,7 @@
         <v>318</v>
       </c>
       <c r="B313" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C313" t="s">
         <v>368</v>
@@ -27631,7 +27628,7 @@
         <v>319</v>
       </c>
       <c r="B314" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C314" t="s">
         <v>368</v>
@@ -27663,7 +27660,7 @@
         <v>320</v>
       </c>
       <c r="B315" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C315" t="s">
         <v>368</v>
@@ -27695,7 +27692,7 @@
         <v>321</v>
       </c>
       <c r="B316" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C316" t="s">
         <v>368</v>
@@ -27727,7 +27724,7 @@
         <v>322</v>
       </c>
       <c r="B317" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C317" t="s">
         <v>368</v>
@@ -27759,7 +27756,7 @@
         <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C318" t="s">
         <v>368</v>
@@ -27791,7 +27788,7 @@
         <v>324</v>
       </c>
       <c r="B319" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C319" t="s">
         <v>368</v>
@@ -27823,7 +27820,7 @@
         <v>325</v>
       </c>
       <c r="B320" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C320" t="s">
         <v>368</v>
@@ -27855,7 +27852,7 @@
         <v>326</v>
       </c>
       <c r="B321" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C321" t="s">
         <v>368</v>
@@ -27887,7 +27884,7 @@
         <v>327</v>
       </c>
       <c r="B322" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C322" t="s">
         <v>368</v>
@@ -27919,7 +27916,7 @@
         <v>328</v>
       </c>
       <c r="B323" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C323" t="s">
         <v>368</v>
@@ -27951,7 +27948,7 @@
         <v>329</v>
       </c>
       <c r="B324" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C324" t="s">
         <v>368</v>
@@ -27983,7 +27980,7 @@
         <v>330</v>
       </c>
       <c r="B325" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C325" t="s">
         <v>368</v>
@@ -28015,7 +28012,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C326" t="s">
         <v>368</v>
@@ -28044,10 +28041,10 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>369</v>
@@ -28076,10 +28073,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>369</v>
@@ -28108,10 +28105,10 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>369</v>
@@ -28140,10 +28137,10 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>369</v>
@@ -28172,10 +28169,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>369</v>
@@ -28204,10 +28201,10 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>369</v>
@@ -28236,10 +28233,10 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>369</v>
@@ -28268,10 +28265,10 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>369</v>
@@ -28300,10 +28297,10 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>369</v>
@@ -28332,10 +28329,10 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>369</v>
@@ -28364,10 +28361,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>369</v>
@@ -28396,10 +28393,10 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>369</v>
@@ -28428,10 +28425,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>369</v>
@@ -28460,10 +28457,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>369</v>
@@ -28492,10 +28489,10 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>369</v>
@@ -28524,10 +28521,10 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>369</v>
@@ -28556,10 +28553,10 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>369</v>
@@ -28588,10 +28585,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>369</v>
@@ -28620,10 +28617,10 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>369</v>
@@ -28652,10 +28649,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>369</v>
@@ -28684,10 +28681,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>369</v>
@@ -28716,10 +28713,10 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>369</v>
@@ -28748,10 +28745,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>369</v>
@@ -28780,10 +28777,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>369</v>
@@ -28812,10 +28809,10 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>369</v>
@@ -28844,10 +28841,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>369</v>
@@ -28876,10 +28873,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>369</v>
@@ -28908,10 +28905,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>369</v>
@@ -28940,10 +28937,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>369</v>
@@ -28972,10 +28969,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>369</v>
@@ -29004,10 +29001,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>369</v>
@@ -29036,10 +29033,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>369</v>
@@ -29068,10 +29065,10 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>369</v>
@@ -29100,10 +29097,10 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>369</v>
@@ -29132,10 +29129,10 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>369</v>
@@ -29164,10 +29161,10 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>369</v>
@@ -29196,10 +29193,10 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>369</v>
@@ -29228,10 +29225,10 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>369</v>
@@ -29260,10 +29257,10 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>369</v>
@@ -29292,10 +29289,10 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>369</v>
@@ -29324,10 +29321,10 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>369</v>
@@ -29356,10 +29353,10 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>369</v>
@@ -29388,10 +29385,10 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>369</v>
@@ -29420,10 +29417,10 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>369</v>
@@ -29452,10 +29449,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>369</v>
@@ -29484,10 +29481,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>369</v>
@@ -29516,10 +29513,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>369</v>
@@ -29548,10 +29545,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>369</v>
@@ -29580,10 +29577,10 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>369</v>
@@ -29612,10 +29609,10 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>369</v>
@@ -29644,10 +29641,10 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>369</v>
@@ -29676,10 +29673,10 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>369</v>
@@ -29708,10 +29705,10 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>369</v>
@@ -29740,10 +29737,10 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>369</v>
@@ -29772,10 +29769,10 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>369</v>
@@ -29804,10 +29801,10 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>369</v>
@@ -29836,10 +29833,10 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>369</v>
@@ -29868,10 +29865,10 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>369</v>
@@ -29900,10 +29897,10 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>369</v>
@@ -29932,10 +29929,10 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>369</v>
@@ -29964,10 +29961,10 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>369</v>
@@ -29996,10 +29993,10 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>369</v>
@@ -30028,10 +30025,10 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>369</v>
@@ -30060,10 +30057,10 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>369</v>
@@ -30092,10 +30089,10 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>369</v>
@@ -30124,10 +30121,10 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>369</v>
@@ -30156,10 +30153,10 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>369</v>
@@ -30188,10 +30185,10 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>369</v>
@@ -30220,10 +30217,10 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>369</v>
@@ -30252,10 +30249,10 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>369</v>
@@ -30284,10 +30281,10 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>369</v>
@@ -30316,10 +30313,10 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>369</v>
@@ -30348,10 +30345,10 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>369</v>
@@ -30380,10 +30377,10 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>369</v>
@@ -30412,10 +30409,10 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>369</v>
@@ -30444,10 +30441,10 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>369</v>
@@ -30476,10 +30473,10 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>369</v>
@@ -30508,10 +30505,10 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>369</v>
@@ -30540,10 +30537,10 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>369</v>
@@ -30572,10 +30569,10 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>369</v>
@@ -30604,10 +30601,10 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>369</v>
@@ -30636,10 +30633,10 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>369</v>
@@ -30668,10 +30665,10 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>369</v>
@@ -30700,10 +30697,10 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>369</v>
@@ -30732,10 +30729,10 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>369</v>
@@ -30764,10 +30761,10 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>369</v>
@@ -30796,10 +30793,10 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>369</v>
@@ -30828,10 +30825,10 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>369</v>
@@ -30860,10 +30857,10 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>369</v>
@@ -30892,10 +30889,10 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>369</v>
@@ -30924,10 +30921,10 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>369</v>
@@ -30956,10 +30953,10 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>369</v>
@@ -30988,10 +30985,10 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>369</v>
@@ -31020,10 +31017,10 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>369</v>
@@ -31052,10 +31049,10 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>369</v>
@@ -31084,10 +31081,10 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>369</v>
@@ -31116,10 +31113,10 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>369</v>
@@ -31148,10 +31145,10 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>369</v>
@@ -31180,10 +31177,10 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>369</v>
@@ -31212,10 +31209,10 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>369</v>
@@ -31244,10 +31241,10 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>369</v>
@@ -31276,10 +31273,10 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>369</v>
@@ -31308,10 +31305,10 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>369</v>
@@ -31340,10 +31337,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>369</v>
@@ -31372,10 +31369,10 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>369</v>
@@ -31404,10 +31401,10 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>369</v>
@@ -31436,10 +31433,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>369</v>
@@ -31468,10 +31465,10 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>369</v>
@@ -31500,10 +31497,10 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>369</v>
@@ -31532,10 +31529,10 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>369</v>
@@ -31564,10 +31561,10 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>369</v>
@@ -31596,10 +31593,10 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>369</v>
@@ -31628,10 +31625,10 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>369</v>
@@ -31660,10 +31657,10 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>369</v>
@@ -31692,10 +31689,10 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>369</v>
@@ -31724,10 +31721,10 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>369</v>
@@ -31756,10 +31753,10 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>369</v>
@@ -31788,10 +31785,10 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>369</v>
@@ -31820,10 +31817,10 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>369</v>
@@ -31852,10 +31849,10 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>369</v>
@@ -31884,10 +31881,10 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>369</v>
@@ -31916,10 +31913,10 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>369</v>
@@ -31948,10 +31945,10 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>369</v>
@@ -31980,10 +31977,10 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>369</v>
@@ -32012,10 +32009,10 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>369</v>
@@ -32044,10 +32041,10 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>369</v>
@@ -32076,10 +32073,10 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>369</v>
@@ -32108,10 +32105,10 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>369</v>
@@ -32140,10 +32137,10 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>369</v>
@@ -32172,10 +32169,10 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>369</v>
